--- a/RFQ_template_hardware.xlsx
+++ b/RFQ_template_hardware.xlsx
@@ -1,47 +1,108 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saggarwal\PythonProjects\email_app_new\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309695FC-D887-4B7F-BFFE-CA07D7EE7FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-25380" yWindow="2985" windowWidth="25875" windowHeight="11475" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-27765" yWindow="1200" windowWidth="25860" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Thickness</t>
+  </si>
+  <si>
+    <t>Part Width</t>
+  </si>
+  <si>
+    <t>Part Length</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>ShippingCharge</t>
+  </si>
+  <si>
+    <t>LeadTime</t>
+  </si>
+  <si>
+    <t>GoodUntil (MM/DD/YYYY)</t>
+  </si>
+  <si>
+    <t>Currency Code</t>
+  </si>
+  <si>
+    <t>NRE (non recording pricing)</t>
+  </si>
+  <si>
+    <t>MOQ</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>05-Sample</t>
+  </si>
+  <si>
+    <t>Sample Hardware</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
+  </si>
+  <si>
+    <t>If Any</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="14"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,9 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,121 +131,52 @@
   <dxfs count="1">
     <dxf>
       <font>
+        <b/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
         <name val="Aptos Narrow"/>
         <family val="2"/>
-        <b val="1"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="14"/>
-        <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:X3" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:X3"/>
-  <tableColumns count="24">
-    <tableColumn id="1" name="Part Number"/>
-    <tableColumn id="24" name="Description"/>
-    <tableColumn id="19" name="Qty"/>
-    <tableColumn id="23" name="Thickness"/>
-    <tableColumn id="22" name="Part Width"/>
-    <tableColumn id="20" name="Part Length"/>
-    <tableColumn id="21" name="Process"/>
-    <tableColumn id="2" name="Price"/>
-    <tableColumn id="3" name="ShippingCharge"/>
-    <tableColumn id="4" name="LeadTime"/>
-    <tableColumn id="5" name="GoodUntil (MM/DD/YYYY)"/>
-    <tableColumn id="6" name="Currency Code"/>
-    <tableColumn id="7" name="Shipping Charge"/>
-    <tableColumn id="8" name="Freight"/>
-    <tableColumn id="9" name="NRE (non recording pricing)"/>
-    <tableColumn id="10" name="MOQ"/>
-    <tableColumn id="11" name="Comments"/>
-    <tableColumn id="12" name="Item Description"/>
-    <tableColumn id="13" name="ITAR or Not"/>
-    <tableColumn id="14" name="Certification required"/>
-    <tableColumn id="15" name="DPAS rating"/>
-    <tableColumn id="16" name="Need Date"/>
-    <tableColumn id="17" name="Other Charges"/>
-    <tableColumn id="18" name="Rev"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Part Number"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Description"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Qty"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Thickness"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Part Width"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Part Length"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Process"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Price"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ShippingCharge"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="LeadTime"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GoodUntil (MM/DD/YYYY)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Currency Code"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="NRE (non recording pricing)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="MOQ"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Comments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,230 +498,111 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:X7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="17.42578125" customWidth="1" min="1" max="2"/>
-    <col width="8.42578125" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="18.5703125" customWidth="1" min="5" max="5"/>
-    <col width="17.42578125" customWidth="1" min="6" max="6"/>
-    <col width="34.140625" customWidth="1" min="7" max="7"/>
-    <col width="8.85546875" customWidth="1" min="8" max="8"/>
-    <col width="21" customWidth="1" min="9" max="9"/>
-    <col width="14.140625" customWidth="1" min="10" max="10"/>
-    <col width="31.85546875" customWidth="1" min="11" max="11"/>
-    <col width="19.7109375" customWidth="1" min="12" max="12"/>
-    <col width="21.42578125" customWidth="1" min="13" max="13"/>
-    <col width="11" customWidth="1" min="14" max="14"/>
-    <col width="33.5703125" customWidth="1" min="15" max="15"/>
-    <col width="8.85546875" customWidth="1" min="16" max="16"/>
-    <col width="28.42578125" customWidth="1" min="17" max="17"/>
-    <col width="21.85546875" customWidth="1" min="18" max="18"/>
-    <col width="15.42578125" customWidth="1" min="19" max="19"/>
-    <col width="27.28515625" customWidth="1" min="20" max="20"/>
-    <col width="16.140625" customWidth="1" min="21" max="21"/>
-    <col width="14.85546875" customWidth="1" min="22" max="22"/>
-    <col width="19.28515625" customWidth="1" min="23" max="23"/>
+    <col min="1" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="33.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="15" max="15" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Part Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Qty</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Thickness</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Part Width</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Part Length</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Price</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>ShippingCharge</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>LeadTime</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>GoodUntil (MM/DD/YYYY)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Currency Code</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Shipping Charge</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Freight</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>NRE (non recording pricing)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>MOQ</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Comments</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Item Description</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>ITAR or Not</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Certification required</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>DPAS rating</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Need Date</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Other Charges</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Rev</t>
-        </is>
+    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>05-10837</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>INSERT-MS-21209-11-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>05-10838</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>NUTPLATE-MS21061-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>05-10411</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RIV - MS20426AD3-3</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>05-10411
-RIVET
-MS20426AD3-3D-5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05-10760</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>NUTPLATE - MS21075L3N</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Test Tool - 2</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Testing Tool - 2</t>
-        </is>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2">
+        <v>45534</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/RFQ_template_hardware.xlsx
+++ b/RFQ_template_hardware.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saggarwal\PythonProjects\email_app_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309695FC-D887-4B7F-BFFE-CA07D7EE7FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1BA7FC-CBAE-49CE-8981-8C150BEA4444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27765" yWindow="1200" windowWidth="25860" windowHeight="14055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24150" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Part Number</t>
   </si>
@@ -77,13 +77,25 @@
   </si>
   <si>
     <t>If Any</t>
+  </si>
+  <si>
+    <t>Company Name:</t>
+  </si>
+  <si>
+    <t>Your Name:</t>
+  </si>
+  <si>
+    <t>Phone Number:</t>
+  </si>
+  <si>
+    <t>Email ID:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +111,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,10 +152,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -159,8 +195,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:O2" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:O2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A5:O6" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A5:O6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Part Number"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Description"/>
@@ -499,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,85 +559,109 @@
     <col min="15" max="15" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="C2">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K6" s="2">
         <v>45534</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L6" t="s">
         <v>17</v>
       </c>
-      <c r="M2">
+      <c r="M6">
         <v>100</v>
       </c>
-      <c r="N2">
+      <c r="N6">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O6" t="s">
         <v>18</v>
       </c>
     </row>
